--- a/biology/Botanique/Idesia/Idesia.xlsx
+++ b/biology/Botanique/Idesia/Idesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Idesia est un genre de plantes à fleurs de la famille des Flacourtiacées en classification classique, ou de la famille des Salicacées en classification phylogénétique APG III (2009)[1], dont les espèces sont originaires de Chine, de Corée et du Japon.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idesia est un genre de plantes à fleurs de la famille des Flacourtiacées en classification classique, ou de la famille des Salicacées en classification phylogénétique APG III (2009), dont les espèces sont originaires de Chine, de Corée et du Japon.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un genre d'arbres caducs, dioïques.
 Les feuilles sont alternes, cordiformes.
@@ -548,7 +562,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La liste des espèces est issue à la fois de l'index IPNI (The international plant names index) et Tropicos (index du jardin botanique de Saint Louis du Missouri) à la date de mai 2012 :
 Idesia fargesii Oliv. : voir Idesia polycarpa var. fargesii (Oliv.) Franch.
@@ -587,11 +603,13 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est décrit en 1866 par Carl Maximowicz[3]. Il le dédie à Eberhard (Evert) Ysbrants Ides (1657 - 1708), un explorateur hollandais ayant fait le voyage à la fin du XVIIe siècle de Moscou à Pékin[4]. Il le place dans la famille des Flacourtiacées.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est décrit en 1866 par Carl Maximowicz. Il le dédie à Eberhard (Evert) Ysbrants Ides (1657 - 1708), un explorateur hollandais ayant fait le voyage à la fin du XVIIe siècle de Moscou à Pékin. Il le place dans la famille des Flacourtiacées.
 Ce genre a un homonyme Idesia Scop. de la famille des Ébénacées, dont le nom actuel est Ropourea Aubl. ou Diospyros L.
-Ce genre a été reversé dans la famille des Salicacées par la classification AGP II en 2003, déplacement confirmé par la classification phylogénétique APG III (2009)[1] en 2009 (la classification AGP maintenait la famille des Flacourtiacées).
+Ce genre a été reversé dans la famille des Salicacées par la classification AGP II en 2003, déplacement confirmé par la classification phylogénétique APG III (2009) en 2009 (la classification AGP maintenait la famille des Flacourtiacées).
 </t>
         </is>
       </c>
